--- a/Tabela  1a - Total de nascimentos.xlsx
+++ b/Tabela  1a - Total de nascimentos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,141 +671,161 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="C16">
-        <v>23690</v>
+        <v>22871</v>
       </c>
       <c r="D16">
-        <v>22419</v>
+        <v>21843</v>
       </c>
       <c r="E16">
-        <v>23697</v>
+        <v>22875</v>
       </c>
       <c r="F16">
-        <v>22425</v>
+        <v>21846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="C17">
-        <v>22056</v>
+        <v>23690</v>
       </c>
       <c r="D17">
-        <v>21280</v>
+        <v>22419</v>
       </c>
       <c r="E17">
-        <v>22058</v>
+        <v>23697</v>
       </c>
       <c r="F17">
-        <v>21282</v>
+        <v>22425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="C18">
-        <v>22701</v>
+        <v>22056</v>
       </c>
       <c r="D18">
-        <v>21859</v>
+        <v>21280</v>
       </c>
       <c r="E18">
-        <v>22705</v>
+        <v>22058</v>
       </c>
       <c r="F18">
-        <v>21863</v>
+        <v>21282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="C19">
-        <v>22411</v>
+        <v>22701</v>
       </c>
       <c r="D19">
-        <v>21773</v>
+        <v>21859</v>
       </c>
       <c r="E19">
-        <v>22417</v>
+        <v>22705</v>
       </c>
       <c r="F19">
-        <v>21778</v>
+        <v>21863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="C20">
-        <v>21684</v>
+        <v>22411</v>
       </c>
       <c r="D20">
-        <v>20729</v>
+        <v>21773</v>
       </c>
       <c r="E20">
-        <v>21689</v>
+        <v>22417</v>
       </c>
       <c r="F20">
-        <v>20733</v>
+        <v>21778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B21">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="C21">
-        <v>20139</v>
+        <v>21684</v>
       </c>
       <c r="D21">
-        <v>19217</v>
+        <v>20729</v>
       </c>
       <c r="E21">
-        <v>20142</v>
+        <v>21689</v>
       </c>
       <c r="F21">
-        <v>19219</v>
+        <v>20733</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>39361</v>
+      </c>
+      <c r="C22">
+        <v>20139</v>
+      </c>
+      <c r="D22">
+        <v>19217</v>
+      </c>
+      <c r="E22">
+        <v>20142</v>
+      </c>
+      <c r="F22">
+        <v>19219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
         <v>2021</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>38035</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>19371</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>18658</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>19374</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>18661</v>
       </c>
     </row>
